--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-Itga9.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>0.02476699755466667</v>
+        <v>0.06665849749111111</v>
       </c>
       <c r="R2">
-        <v>0.222902977992</v>
+        <v>0.59992647742</v>
       </c>
       <c r="S2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="T2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>0.04346581851511111</v>
+        <v>0.04346581851511112</v>
       </c>
       <c r="R3">
-        <v>0.3911923666359999</v>
+        <v>0.391192366636</v>
       </c>
       <c r="S3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="T3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>0.008362083280444447</v>
+        <v>0.009761141608444445</v>
       </c>
       <c r="R4">
-        <v>0.07525874952400001</v>
+        <v>0.08785027447600001</v>
       </c>
       <c r="S4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="T4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>0.1031877741342222</v>
+        <v>0.213030261748</v>
       </c>
       <c r="R5">
-        <v>0.928689967208</v>
+        <v>1.917272355732</v>
       </c>
       <c r="S5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="T5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
     </row>
   </sheetData>
